--- a/fuentes/contenidos/grado06/guion06/Escaleta CN_06_06_CO.xlsx
+++ b/fuentes/contenidos/grado06/guion06/Escaleta CN_06_06_CO.xlsx
@@ -988,16 +988,34 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1037,24 +1055,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1364,8 +1364,8 @@
   <dimension ref="A1:U283"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="F1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G38" sqref="G38"/>
+      <pane ySplit="2" topLeftCell="A30" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L36" sqref="L36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1393,94 +1393,94 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" s="16" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="26" t="s">
+      <c r="B1" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="37" t="s">
+      <c r="C1" s="43" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="28" t="s">
+      <c r="D1" s="34" t="s">
         <v>110</v>
       </c>
-      <c r="E1" s="26" t="s">
+      <c r="E1" s="32" t="s">
         <v>111</v>
       </c>
-      <c r="F1" s="22" t="s">
+      <c r="F1" s="30" t="s">
         <v>112</v>
       </c>
-      <c r="G1" s="30" t="s">
+      <c r="G1" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="22" t="s">
+      <c r="H1" s="30" t="s">
         <v>113</v>
       </c>
-      <c r="I1" s="22" t="s">
+      <c r="I1" s="30" t="s">
         <v>107</v>
       </c>
-      <c r="J1" s="34" t="s">
+      <c r="J1" s="40" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="32" t="s">
+      <c r="K1" s="38" t="s">
         <v>108</v>
       </c>
-      <c r="L1" s="30" t="s">
+      <c r="L1" s="36" t="s">
         <v>14</v>
       </c>
-      <c r="M1" s="36" t="s">
+      <c r="M1" s="42" t="s">
         <v>21</v>
       </c>
-      <c r="N1" s="36"/>
-      <c r="O1" s="24" t="s">
+      <c r="N1" s="42"/>
+      <c r="O1" s="22" t="s">
         <v>109</v>
       </c>
-      <c r="P1" s="24" t="s">
+      <c r="P1" s="22" t="s">
         <v>114</v>
       </c>
-      <c r="Q1" s="39" t="s">
+      <c r="Q1" s="24" t="s">
         <v>85</v>
       </c>
-      <c r="R1" s="43" t="s">
+      <c r="R1" s="28" t="s">
         <v>86</v>
       </c>
-      <c r="S1" s="39" t="s">
+      <c r="S1" s="24" t="s">
         <v>87</v>
       </c>
-      <c r="T1" s="41" t="s">
+      <c r="T1" s="26" t="s">
         <v>88</v>
       </c>
-      <c r="U1" s="39" t="s">
+      <c r="U1" s="24" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="2" spans="1:21" s="16" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="29"/>
-      <c r="B2" s="27"/>
-      <c r="C2" s="38"/>
-      <c r="D2" s="29"/>
-      <c r="E2" s="27"/>
-      <c r="F2" s="23"/>
-      <c r="G2" s="31"/>
-      <c r="H2" s="23"/>
-      <c r="I2" s="23"/>
-      <c r="J2" s="35"/>
-      <c r="K2" s="33"/>
-      <c r="L2" s="31"/>
+      <c r="A2" s="35"/>
+      <c r="B2" s="33"/>
+      <c r="C2" s="44"/>
+      <c r="D2" s="35"/>
+      <c r="E2" s="33"/>
+      <c r="F2" s="31"/>
+      <c r="G2" s="37"/>
+      <c r="H2" s="31"/>
+      <c r="I2" s="31"/>
+      <c r="J2" s="41"/>
+      <c r="K2" s="39"/>
+      <c r="L2" s="37"/>
       <c r="M2" s="17" t="s">
         <v>90</v>
       </c>
       <c r="N2" s="17" t="s">
         <v>91</v>
       </c>
-      <c r="O2" s="25"/>
-      <c r="P2" s="25"/>
-      <c r="Q2" s="40"/>
-      <c r="R2" s="44"/>
-      <c r="S2" s="40"/>
-      <c r="T2" s="42"/>
-      <c r="U2" s="40"/>
+      <c r="O2" s="23"/>
+      <c r="P2" s="23"/>
+      <c r="Q2" s="25"/>
+      <c r="R2" s="29"/>
+      <c r="S2" s="25"/>
+      <c r="T2" s="27"/>
+      <c r="U2" s="25"/>
     </row>
     <row r="3" spans="1:21" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
@@ -4529,12 +4529,6 @@
   </sheetData>
   <autoFilter ref="A2:U37"/>
   <mergeCells count="20">
-    <mergeCell ref="P1:P2"/>
-    <mergeCell ref="U1:U2"/>
-    <mergeCell ref="T1:T2"/>
-    <mergeCell ref="S1:S2"/>
-    <mergeCell ref="R1:R2"/>
-    <mergeCell ref="Q1:Q2"/>
     <mergeCell ref="I1:I2"/>
     <mergeCell ref="H1:H2"/>
     <mergeCell ref="O1:O2"/>
@@ -4549,6 +4543,12 @@
     <mergeCell ref="D1:D2"/>
     <mergeCell ref="C1:C2"/>
     <mergeCell ref="F1:F2"/>
+    <mergeCell ref="P1:P2"/>
+    <mergeCell ref="U1:U2"/>
+    <mergeCell ref="T1:T2"/>
+    <mergeCell ref="S1:S2"/>
+    <mergeCell ref="R1:R2"/>
+    <mergeCell ref="Q1:Q2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/fuentes/contenidos/grado06/guion06/Escaleta CN_06_06_CO.xlsx
+++ b/fuentes/contenidos/grado06/guion06/Escaleta CN_06_06_CO.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\diego\Documents\GitHub\CienciasNaturales\fuentes\contenidos\grado06\guion06\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mpgarcia\Desktop\CienciasNaturales\fuentes\contenidos\grado06\guion06\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -16,7 +16,7 @@
     <sheet name="DATOS" sheetId="1" state="hidden" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja2!$A$2:$U$37</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja2!$A$2:$U$38</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
 </workbook>
@@ -988,34 +988,16 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1055,6 +1037,24 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1363,9 +1363,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U283"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A30" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L36" sqref="L36"/>
+    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L42" sqref="L42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1393,94 +1393,94 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" s="16" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="32" t="s">
+      <c r="B1" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="43" t="s">
+      <c r="C1" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="34" t="s">
+      <c r="D1" s="28" t="s">
         <v>110</v>
       </c>
-      <c r="E1" s="32" t="s">
+      <c r="E1" s="26" t="s">
         <v>111</v>
       </c>
-      <c r="F1" s="30" t="s">
+      <c r="F1" s="22" t="s">
         <v>112</v>
       </c>
-      <c r="G1" s="36" t="s">
+      <c r="G1" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="30" t="s">
+      <c r="H1" s="22" t="s">
         <v>113</v>
       </c>
-      <c r="I1" s="30" t="s">
+      <c r="I1" s="22" t="s">
         <v>107</v>
       </c>
-      <c r="J1" s="40" t="s">
+      <c r="J1" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="38" t="s">
+      <c r="K1" s="32" t="s">
         <v>108</v>
       </c>
-      <c r="L1" s="36" t="s">
+      <c r="L1" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="M1" s="42" t="s">
+      <c r="M1" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="N1" s="42"/>
-      <c r="O1" s="22" t="s">
+      <c r="N1" s="36"/>
+      <c r="O1" s="24" t="s">
         <v>109</v>
       </c>
-      <c r="P1" s="22" t="s">
+      <c r="P1" s="24" t="s">
         <v>114</v>
       </c>
-      <c r="Q1" s="24" t="s">
+      <c r="Q1" s="39" t="s">
         <v>85</v>
       </c>
-      <c r="R1" s="28" t="s">
+      <c r="R1" s="43" t="s">
         <v>86</v>
       </c>
-      <c r="S1" s="24" t="s">
+      <c r="S1" s="39" t="s">
         <v>87</v>
       </c>
-      <c r="T1" s="26" t="s">
+      <c r="T1" s="41" t="s">
         <v>88</v>
       </c>
-      <c r="U1" s="24" t="s">
+      <c r="U1" s="39" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="2" spans="1:21" s="16" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="35"/>
-      <c r="B2" s="33"/>
-      <c r="C2" s="44"/>
-      <c r="D2" s="35"/>
-      <c r="E2" s="33"/>
-      <c r="F2" s="31"/>
-      <c r="G2" s="37"/>
-      <c r="H2" s="31"/>
-      <c r="I2" s="31"/>
-      <c r="J2" s="41"/>
-      <c r="K2" s="39"/>
-      <c r="L2" s="37"/>
+      <c r="A2" s="29"/>
+      <c r="B2" s="27"/>
+      <c r="C2" s="38"/>
+      <c r="D2" s="29"/>
+      <c r="E2" s="27"/>
+      <c r="F2" s="23"/>
+      <c r="G2" s="31"/>
+      <c r="H2" s="23"/>
+      <c r="I2" s="23"/>
+      <c r="J2" s="35"/>
+      <c r="K2" s="33"/>
+      <c r="L2" s="31"/>
       <c r="M2" s="17" t="s">
         <v>90</v>
       </c>
       <c r="N2" s="17" t="s">
         <v>91</v>
       </c>
-      <c r="O2" s="23"/>
-      <c r="P2" s="23"/>
-      <c r="Q2" s="25"/>
-      <c r="R2" s="29"/>
-      <c r="S2" s="25"/>
-      <c r="T2" s="27"/>
-      <c r="U2" s="25"/>
+      <c r="O2" s="25"/>
+      <c r="P2" s="25"/>
+      <c r="Q2" s="40"/>
+      <c r="R2" s="44"/>
+      <c r="S2" s="40"/>
+      <c r="T2" s="42"/>
+      <c r="U2" s="40"/>
     </row>
     <row r="3" spans="1:21" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
@@ -4527,8 +4527,14 @@
     <row r="282" hidden="1" x14ac:dyDescent="0.25"/>
     <row r="283" hidden="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <autoFilter ref="A2:U37"/>
+  <autoFilter ref="A2:U38"/>
   <mergeCells count="20">
+    <mergeCell ref="P1:P2"/>
+    <mergeCell ref="U1:U2"/>
+    <mergeCell ref="T1:T2"/>
+    <mergeCell ref="S1:S2"/>
+    <mergeCell ref="R1:R2"/>
+    <mergeCell ref="Q1:Q2"/>
     <mergeCell ref="I1:I2"/>
     <mergeCell ref="H1:H2"/>
     <mergeCell ref="O1:O2"/>
@@ -4543,12 +4549,6 @@
     <mergeCell ref="D1:D2"/>
     <mergeCell ref="C1:C2"/>
     <mergeCell ref="F1:F2"/>
-    <mergeCell ref="P1:P2"/>
-    <mergeCell ref="U1:U2"/>
-    <mergeCell ref="T1:T2"/>
-    <mergeCell ref="S1:S2"/>
-    <mergeCell ref="R1:R2"/>
-    <mergeCell ref="Q1:Q2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/fuentes/contenidos/grado06/guion06/Escaleta CN_06_06_CO.xlsx
+++ b/fuentes/contenidos/grado06/guion06/Escaleta CN_06_06_CO.xlsx
@@ -1,29 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mpgarcia\Desktop\CienciasNaturales\fuentes\contenidos\grado06\guion06\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
+    <workbookView xWindow="0" yWindow="60" windowWidth="20490" windowHeight="7695"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja2" sheetId="2" r:id="rId1"/>
-    <sheet name="DATOS" sheetId="1" state="hidden" r:id="rId2"/>
+    <sheet name="DATOS" sheetId="1" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja2!$A$2:$U$38</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="637" uniqueCount="253">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="642" uniqueCount="254">
   <si>
     <t>Asignatura</t>
   </si>
@@ -695,9 +690,6 @@
     <t xml:space="preserve">Secuencia de imágenes que presenta el tipo de respiración en los microorganismos </t>
   </si>
   <si>
-    <t>Recurso F4-03</t>
-  </si>
-  <si>
     <t>Recurso F12-01</t>
   </si>
   <si>
@@ -783,6 +775,12 @@
   </si>
   <si>
     <t>Actividad que permite reforzar los conocimientos sobre el proceso de respiración en los animales</t>
+  </si>
+  <si>
+    <t>Recurso M101AP-01</t>
+  </si>
+  <si>
+    <t>m101ap</t>
   </si>
 </sst>
 </file>
@@ -988,16 +986,34 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1037,24 +1053,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1117,7 +1115,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1152,7 +1150,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1363,8 +1361,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U283"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="J1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A33" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="L42" sqref="L42"/>
     </sheetView>
   </sheetViews>
@@ -1383,8 +1381,8 @@
     <col min="11" max="11" width="13.28515625" customWidth="1"/>
     <col min="12" max="12" width="25.28515625" customWidth="1"/>
     <col min="13" max="14" width="9.28515625" customWidth="1"/>
-    <col min="15" max="15" width="37.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="16.5703125" style="1" customWidth="1"/>
+    <col min="15" max="15" width="7.5703125" style="1" customWidth="1"/>
+    <col min="16" max="16" width="4.85546875" style="1" customWidth="1"/>
     <col min="17" max="17" width="20.42578125" style="1" customWidth="1"/>
     <col min="18" max="18" width="23" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="30.7109375" customWidth="1"/>
@@ -1393,94 +1391,94 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" s="16" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="26" t="s">
+      <c r="B1" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="37" t="s">
+      <c r="C1" s="43" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="28" t="s">
+      <c r="D1" s="34" t="s">
         <v>110</v>
       </c>
-      <c r="E1" s="26" t="s">
+      <c r="E1" s="32" t="s">
         <v>111</v>
       </c>
-      <c r="F1" s="22" t="s">
+      <c r="F1" s="30" t="s">
         <v>112</v>
       </c>
-      <c r="G1" s="30" t="s">
+      <c r="G1" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="22" t="s">
+      <c r="H1" s="30" t="s">
         <v>113</v>
       </c>
-      <c r="I1" s="22" t="s">
+      <c r="I1" s="30" t="s">
         <v>107</v>
       </c>
-      <c r="J1" s="34" t="s">
+      <c r="J1" s="40" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="32" t="s">
+      <c r="K1" s="38" t="s">
         <v>108</v>
       </c>
-      <c r="L1" s="30" t="s">
+      <c r="L1" s="36" t="s">
         <v>14</v>
       </c>
-      <c r="M1" s="36" t="s">
+      <c r="M1" s="42" t="s">
         <v>21</v>
       </c>
-      <c r="N1" s="36"/>
-      <c r="O1" s="24" t="s">
+      <c r="N1" s="42"/>
+      <c r="O1" s="22" t="s">
         <v>109</v>
       </c>
-      <c r="P1" s="24" t="s">
+      <c r="P1" s="22" t="s">
         <v>114</v>
       </c>
-      <c r="Q1" s="39" t="s">
+      <c r="Q1" s="24" t="s">
         <v>85</v>
       </c>
-      <c r="R1" s="43" t="s">
+      <c r="R1" s="28" t="s">
         <v>86</v>
       </c>
-      <c r="S1" s="39" t="s">
+      <c r="S1" s="24" t="s">
         <v>87</v>
       </c>
-      <c r="T1" s="41" t="s">
+      <c r="T1" s="26" t="s">
         <v>88</v>
       </c>
-      <c r="U1" s="39" t="s">
+      <c r="U1" s="24" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="2" spans="1:21" s="16" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="29"/>
-      <c r="B2" s="27"/>
-      <c r="C2" s="38"/>
-      <c r="D2" s="29"/>
-      <c r="E2" s="27"/>
-      <c r="F2" s="23"/>
-      <c r="G2" s="31"/>
-      <c r="H2" s="23"/>
-      <c r="I2" s="23"/>
-      <c r="J2" s="35"/>
-      <c r="K2" s="33"/>
-      <c r="L2" s="31"/>
+      <c r="A2" s="35"/>
+      <c r="B2" s="33"/>
+      <c r="C2" s="44"/>
+      <c r="D2" s="35"/>
+      <c r="E2" s="33"/>
+      <c r="F2" s="31"/>
+      <c r="G2" s="37"/>
+      <c r="H2" s="31"/>
+      <c r="I2" s="31"/>
+      <c r="J2" s="41"/>
+      <c r="K2" s="39"/>
+      <c r="L2" s="37"/>
       <c r="M2" s="17" t="s">
         <v>90</v>
       </c>
       <c r="N2" s="17" t="s">
         <v>91</v>
       </c>
-      <c r="O2" s="25"/>
-      <c r="P2" s="25"/>
-      <c r="Q2" s="40"/>
-      <c r="R2" s="44"/>
-      <c r="S2" s="40"/>
-      <c r="T2" s="42"/>
-      <c r="U2" s="40"/>
+      <c r="O2" s="23"/>
+      <c r="P2" s="23"/>
+      <c r="Q2" s="25"/>
+      <c r="R2" s="29"/>
+      <c r="S2" s="25"/>
+      <c r="T2" s="27"/>
+      <c r="U2" s="25"/>
     </row>
     <row r="3" spans="1:21" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
@@ -1666,7 +1664,7 @@
         <v>19</v>
       </c>
       <c r="J6" s="18" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="K6" s="7" t="s">
         <v>20</v>
@@ -2086,7 +2084,7 @@
         <v>19</v>
       </c>
       <c r="J14" s="18" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="K14" s="7" t="s">
         <v>20</v>
@@ -2145,7 +2143,7 @@
         <v>20</v>
       </c>
       <c r="J15" s="18" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="K15" s="7" t="s">
         <v>20</v>
@@ -2204,7 +2202,7 @@
         <v>20</v>
       </c>
       <c r="J16" s="18" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="K16" s="7" t="s">
         <v>20</v>
@@ -2466,7 +2464,7 @@
         <v>131</v>
       </c>
       <c r="T20" s="12" t="s">
-        <v>223</v>
+        <v>184</v>
       </c>
       <c r="U20" s="10" t="s">
         <v>133</v>
@@ -2617,7 +2615,7 @@
         <v>20</v>
       </c>
       <c r="J23" s="18" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="K23" s="7" t="s">
         <v>20</v>
@@ -2798,7 +2796,7 @@
         <v>131</v>
       </c>
       <c r="T26" s="12" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="U26" s="10" t="s">
         <v>133</v>
@@ -3000,7 +2998,7 @@
       </c>
       <c r="M30" s="8"/>
       <c r="N30" s="8" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="O30" s="9"/>
       <c r="P30" s="21" t="s">
@@ -3097,7 +3095,7 @@
       <c r="E32" s="13"/>
       <c r="F32" s="9"/>
       <c r="G32" s="19" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="H32" s="9">
         <v>25</v>
@@ -3106,7 +3104,7 @@
         <v>20</v>
       </c>
       <c r="J32" s="18" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="K32" s="7" t="s">
         <v>20</v>
@@ -3132,7 +3130,7 @@
         <v>137</v>
       </c>
       <c r="T32" s="12" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="U32" s="10" t="s">
         <v>139</v>
@@ -3154,7 +3152,7 @@
       <c r="E33" s="13"/>
       <c r="F33" s="9"/>
       <c r="G33" s="19" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="H33" s="9">
         <v>26</v>
@@ -3163,7 +3161,7 @@
         <v>20</v>
       </c>
       <c r="J33" s="18" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="K33" s="7" t="s">
         <v>19</v>
@@ -3180,19 +3178,19 @@
         <v>19</v>
       </c>
       <c r="Q33" s="10" t="s">
+        <v>231</v>
+      </c>
+      <c r="R33" s="11" t="s">
         <v>232</v>
       </c>
-      <c r="R33" s="11" t="s">
+      <c r="S33" s="10" t="s">
         <v>233</v>
       </c>
-      <c r="S33" s="10" t="s">
+      <c r="T33" s="12" t="s">
+        <v>229</v>
+      </c>
+      <c r="U33" s="10" t="s">
         <v>234</v>
-      </c>
-      <c r="T33" s="12" t="s">
-        <v>230</v>
-      </c>
-      <c r="U33" s="10" t="s">
-        <v>235</v>
       </c>
     </row>
     <row r="34" spans="1:21" ht="45" x14ac:dyDescent="0.25">
@@ -3211,7 +3209,7 @@
       <c r="E34" s="13"/>
       <c r="F34" s="9"/>
       <c r="G34" s="19" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="H34" s="9">
         <v>27</v>
@@ -3220,7 +3218,7 @@
         <v>20</v>
       </c>
       <c r="J34" s="18" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="K34" s="7" t="s">
         <v>19</v>
@@ -3246,7 +3244,7 @@
         <v>144</v>
       </c>
       <c r="T34" s="12" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="U34" s="10" t="s">
         <v>146</v>
@@ -3268,7 +3266,7 @@
       <c r="E35" s="13"/>
       <c r="F35" s="9"/>
       <c r="G35" s="19" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="H35" s="9">
         <v>28</v>
@@ -3277,7 +3275,7 @@
         <v>20</v>
       </c>
       <c r="J35" s="18" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="K35" s="7" t="s">
         <v>19</v>
@@ -3303,7 +3301,7 @@
         <v>144</v>
       </c>
       <c r="T35" s="12" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="U35" s="10" t="s">
         <v>146</v>
@@ -3320,12 +3318,12 @@
         <v>122</v>
       </c>
       <c r="D36" s="15" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="E36" s="13"/>
       <c r="F36" s="9"/>
       <c r="G36" s="19" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="H36" s="9">
         <v>29</v>
@@ -3334,13 +3332,13 @@
         <v>20</v>
       </c>
       <c r="J36" s="18" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="K36" s="7" t="s">
         <v>19</v>
       </c>
       <c r="L36" s="6" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="M36" s="8"/>
       <c r="N36" s="8"/>
@@ -3363,12 +3361,12 @@
         <v>122</v>
       </c>
       <c r="D37" s="15" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="E37" s="13"/>
       <c r="F37" s="9"/>
       <c r="G37" s="19" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="H37" s="9">
         <v>30</v>
@@ -3377,23 +3375,35 @@
         <v>20</v>
       </c>
       <c r="J37" s="18" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="K37" s="7" t="s">
         <v>20</v>
       </c>
       <c r="L37" s="6" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="M37" s="8"/>
-      <c r="N37" s="8"/>
+      <c r="N37" s="8" t="s">
+        <v>245</v>
+      </c>
       <c r="O37" s="9"/>
       <c r="P37" s="9"/>
-      <c r="Q37" s="10"/>
-      <c r="R37" s="11"/>
-      <c r="S37" s="10"/>
-      <c r="T37" s="12"/>
-      <c r="U37" s="10"/>
+      <c r="Q37" s="10">
+        <v>6</v>
+      </c>
+      <c r="R37" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="S37" s="10" t="s">
+        <v>137</v>
+      </c>
+      <c r="T37" s="12" t="s">
+        <v>246</v>
+      </c>
+      <c r="U37" s="10" t="s">
+        <v>139</v>
+      </c>
     </row>
     <row r="38" spans="1:21" ht="30" x14ac:dyDescent="0.25">
       <c r="A38" s="4" t="s">
@@ -3406,12 +3416,12 @@
         <v>122</v>
       </c>
       <c r="D38" s="15" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="E38" s="13"/>
       <c r="F38" s="9"/>
       <c r="G38" s="19" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="H38" s="9">
         <v>31</v>
@@ -3420,7 +3430,7 @@
         <v>20</v>
       </c>
       <c r="J38" s="18" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="K38" s="7" t="s">
         <v>20</v>
@@ -3430,7 +3440,7 @@
       </c>
       <c r="M38" s="8"/>
       <c r="N38" s="8" t="s">
-        <v>246</v>
+        <v>253</v>
       </c>
       <c r="O38" s="9"/>
       <c r="P38" s="9" t="s">
@@ -3446,7 +3456,7 @@
         <v>137</v>
       </c>
       <c r="T38" s="12" t="s">
-        <v>247</v>
+        <v>252</v>
       </c>
       <c r="U38" s="10" t="s">
         <v>139</v>
@@ -4529,12 +4539,6 @@
   </sheetData>
   <autoFilter ref="A2:U38"/>
   <mergeCells count="20">
-    <mergeCell ref="P1:P2"/>
-    <mergeCell ref="U1:U2"/>
-    <mergeCell ref="T1:T2"/>
-    <mergeCell ref="S1:S2"/>
-    <mergeCell ref="R1:R2"/>
-    <mergeCell ref="Q1:Q2"/>
     <mergeCell ref="I1:I2"/>
     <mergeCell ref="H1:H2"/>
     <mergeCell ref="O1:O2"/>
@@ -4549,6 +4553,12 @@
     <mergeCell ref="D1:D2"/>
     <mergeCell ref="C1:C2"/>
     <mergeCell ref="F1:F2"/>
+    <mergeCell ref="P1:P2"/>
+    <mergeCell ref="U1:U2"/>
+    <mergeCell ref="T1:T2"/>
+    <mergeCell ref="S1:S2"/>
+    <mergeCell ref="R1:R2"/>
+    <mergeCell ref="Q1:Q2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
